--- a/PaperII.xlsx
+++ b/PaperII.xlsx
@@ -4,20 +4,40 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="419"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="419" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pressure_drop_real" sheetId="4" r:id="rId1"/>
     <sheet name="Grid_Convergence" sheetId="2" r:id="rId2"/>
-    <sheet name="Blad1" sheetId="1" r:id="rId3"/>
-    <sheet name="Blad3" sheetId="3" r:id="rId4"/>
+    <sheet name="gap_flowrate" sheetId="5" r:id="rId3"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId4"/>
+    <sheet name="Blad3" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="New_Text_Document" localSheetId="2">gap_flowrate!$A$2:$E$11</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="New Text Document" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\congwang\Desktop\New Text Document.txt" space="1" consecutive="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>coarse</t>
   </si>
@@ -69,12 +89,97 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gap [m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>v [m/s]</t>
+  </si>
+  <si>
+    <r>
+      <t>Q [m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/s]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +195,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -99,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -213,22 +334,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -262,6 +409,42 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -389,7 +572,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.43098157527408E-2"/>
+                  <c:y val="1.5328721716745923E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:txPr>
                 <a:bodyPr/>
@@ -453,11 +641,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209464320"/>
-        <c:axId val="209486976"/>
+        <c:axId val="206576256"/>
+        <c:axId val="206594816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209464320"/>
+        <c:axId val="206576256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -478,7 +666,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Coefficient</a:t>
+                  <a:t> Coefficient kL</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -491,12 +679,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209486976"/>
+        <c:crossAx val="206594816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209486976"/>
+        <c:axId val="206594816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -532,7 +720,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209464320"/>
+        <c:crossAx val="206576256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -553,6 +741,287 @@
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1005255905511811"/>
+                  <c:y val="6.0319699620880726E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$A$1:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$F$1:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.996000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.90672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="207701888"/>
+        <c:axId val="207703424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="207701888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="207703424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="207703424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="207701888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2190479002624672"/>
+                  <c:y val="-1.4270924467774861E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$D$20:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$C$20:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="207728640"/>
+        <c:axId val="207730176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="207728640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="207730176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="207730176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="207728640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -666,11 +1135,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209509760"/>
-        <c:axId val="210187776"/>
+        <c:axId val="207099392"/>
+        <c:axId val="207101312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209509760"/>
+        <c:axId val="207099392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.2"/>
@@ -708,12 +1177,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210187776"/>
+        <c:crossAx val="207101312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210187776"/>
+        <c:axId val="207101312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -745,7 +1214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209509760"/>
+        <c:crossAx val="207099392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -880,11 +1349,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210237312"/>
-        <c:axId val="209780736"/>
+        <c:axId val="207147008"/>
+        <c:axId val="207148928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210237312"/>
+        <c:axId val="207147008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,12 +1398,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209780736"/>
+        <c:crossAx val="207148928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209780736"/>
+        <c:axId val="207148928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,7 +1433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210237312"/>
+        <c:crossAx val="207147008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1184,11 +1653,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209815424"/>
-        <c:axId val="209821696"/>
+        <c:axId val="207320576"/>
+        <c:axId val="207322496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209815424"/>
+        <c:axId val="207320576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -1226,12 +1695,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209821696"/>
+        <c:crossAx val="207322496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209821696"/>
+        <c:axId val="207322496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -1263,7 +1732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209815424"/>
+        <c:crossAx val="207320576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1307,55 +1776,88 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>PAS</c:v>
-          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:backward val="0.25"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr>
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Grid_Convergence!$B$2:$B$4</c:f>
+              <c:f>pressure_drop_real!$N$3:$N$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10418517</c:v>
+                  <c:v>0.27700000000000014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11771402</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14335157</c:v>
+                  <c:v>0.56100000000000017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Grid_Convergence!$C$2:$C$4</c:f>
+              <c:f>pressure_drop_real!$O$3:$O$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.8499999999999994E-13</c:v>
+                  <c:v>2.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4970000000000003E-13</c:v>
+                  <c:v>5.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9799999999999995E-13</c:v>
+                  <c:v>7.3369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1365,64 +1867,117 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209829248"/>
-        <c:axId val="209892480"/>
+        <c:axId val="207348096"/>
+        <c:axId val="207350016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209829248"/>
+        <c:axId val="207348096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="15000000"/>
-          <c:min val="10000000"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cross-Door</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Flow Rate [m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30000"/>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209892480"/>
+        <c:crossAx val="207350016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209892480"/>
+        <c:axId val="207350016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.2000000000000007E-12"/>
-          <c:min val="4.0000000000000026E-13"/>
+          <c:max val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>OR Pressure [Pa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209829248"/>
+        <c:crossAx val="207348096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1.0000000000000007E-13"/>
       </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.56515244969378831"/>
-          <c:y val="0.1618449256342957"/>
-          <c:w val="0.1265142169728784"/>
-          <c:h val="8.3717191601049873E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1445,7 +2000,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1455,7 +2010,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>AAS</c:v>
+            <c:v>PAS</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -1477,62 +2032,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Grid_Convergence!$D$2:$D$4</c:f>
+              <c:f>Grid_Convergence!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.1479999999999999E-10</c:v>
+                  <c:v>9.8499999999999994E-13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7399999999999995E-11</c:v>
+                  <c:v>7.4970000000000003E-13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0799999999999999E-11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>VOL</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Grid_Convergence!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10418517</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11771402</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14335157</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Grid_Convergence!$E$2:$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5.7399999999999997E-11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3200000000000001E-11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5699999999999999E-11</c:v>
+                  <c:v>6.9799999999999995E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1547,11 +2058,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198202880"/>
-        <c:axId val="198204416"/>
+        <c:axId val="207654272"/>
+        <c:axId val="207668352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198202880"/>
+        <c:axId val="207654272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000000"/>
@@ -1563,14 +2074,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198204416"/>
+        <c:crossAx val="207668352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198204416"/>
+        <c:axId val="207668352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.2000000000000007E-12"/>
+          <c:min val="4.0000000000000026E-13"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1579,9 +2092,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198202880"/>
+        <c:crossAx val="207654272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0000000000000007E-13"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1590,10 +2104,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.52916644794400691"/>
-          <c:y val="0.14776428988043161"/>
-          <c:w val="0.12916688538932633"/>
-          <c:h val="0.16743438320209975"/>
+          <c:x val="0.56515244969378831"/>
+          <c:y val="0.1618449256342957"/>
+          <c:w val="0.1265142169728784"/>
+          <c:h val="8.3717191601049873E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1628,72 +2142,95 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.1005255905511811"/>
-                  <c:y val="6.0319699620880726E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
+          <c:tx>
+            <c:v>AAS</c:v>
+          </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$A$1:$A$3</c:f>
+              <c:f>Grid_Convergence!$B$2:$B$4</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10418517</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>11771402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>14335157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$F$1:$F$3</c:f>
+              <c:f>Grid_Convergence!$D$2:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.25</c:v>
+                  <c:v>1.1479999999999999E-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.996000000000002</c:v>
+                  <c:v>6.7399999999999995E-11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.90672</c:v>
+                  <c:v>6.0799999999999999E-11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>VOL</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grid_Convergence!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10418517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11771402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14335157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grid_Convergence!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.7399999999999997E-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3200000000000001E-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5699999999999999E-11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1703,42 +2240,57 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209867904"/>
-        <c:axId val="209869440"/>
+        <c:axId val="207382016"/>
+        <c:axId val="207383552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209867904"/>
+        <c:axId val="207382016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15000000"/>
+          <c:min val="10000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="207383552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="207383552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209869440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="209869440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209867904"/>
+        <c:crossAx val="207382016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.52916644794400691"/>
+          <c:y val="0.14776428988043161"/>
+          <c:w val="0.12916688538932633"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1769,67 +2321,303 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>simulation (kL=100)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>gap_flowrate!$M$12:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>gap_flowrate!$O$12:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9100000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="207454208"/>
+        <c:axId val="207455744"/>
+      </c:scatterChart>
+      <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.2190479002624672"/>
-                  <c:y val="-1.4270924467774861E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
+          <c:tx>
+            <c:v>normal</c:v>
+          </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$D$20:$D$22</c:f>
+              <c:f>gap_flowrate!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.823</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.61</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$C$20:$C$22</c:f>
+              <c:f>gap_flowrate!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>tight</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>gap_flowrate!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>gap_flowrate!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.85</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>theoretical</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>gap_flowrate!$M$2:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>gap_flowrate!$O$2:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1180339887498949E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5355339059327376E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3301270189221933E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5901699437494748E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1237243569579457E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1844,11 +2632,326 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198458368"/>
-        <c:axId val="198480640"/>
+        <c:axId val="207454208"/>
+        <c:axId val="207455744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198458368"/>
+        <c:axId val="207454208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR">
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>P [Pa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="207455744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="207455744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="207454208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11590201224846894"/>
+          <c:y val="2.9304558201618442E-2"/>
+          <c:w val="0.30547309711286091"/>
+          <c:h val="0.2947500144389042"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.18717541557305337"/>
+                  <c:y val="0.41192038495188099"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>gap_flowrate!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>gap_flowrate!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.33333333333333331"/>
+                  <c:y val="-5.8041338582677168E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>gap_flowrate!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>gap_flowrate!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="207485952"/>
+        <c:axId val="207504128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="207485952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,23 +2961,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198480640"/>
+        <c:crossAx val="207504128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198480640"/>
+        <c:axId val="207504128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198458368"/>
+        <c:crossAx val="207485952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2244,6 +3347,38 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>464081</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>37463</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2393,6 +3528,248 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>562708</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>20247</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr=" \Delta p = k_L \frac{1}{2} \rho v^2 "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="66865"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6065520" y="525780"/>
+          <a:ext cx="1042768" cy="462207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="83820" y="2247900"/>
+          <a:ext cx="2819400" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>normal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> door gap: 6 m × 0.005 m = 0.03 m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="30000"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tight door gap: 6 m × 0.0005 m = 0.003 m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -2452,6 +3829,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2743,8 +4124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2760,124 +4141,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="4">
         <v>10</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <v>11.393000000000001</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>11.401</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="J2" s="17">
+      <c r="J2" s="14">
         <v>8.5990000000000002</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="5">
         <v>2.1</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="5">
         <v>2.1</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="5">
         <v>10</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="5">
         <f>K2-L2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>20</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>21.295000000000002</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>21.300999999999998</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="J3" s="17">
+      <c r="J3" s="14">
         <v>8.5990000000000002</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="5">
         <v>2.1</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="5">
         <v>1.823</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="5">
         <v>7.48</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="5">
         <f t="shared" ref="N3:N6" si="0">K3-L3</f>
         <v>0.27700000000000014</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="17">
         <v>2.48</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
+      <c r="A4" s="8">
         <v>40</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>41.173999999999999</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>41.179000000000002</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="J4" s="17">
+      <c r="J4" s="14">
         <v>8.5990000000000002</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="5">
         <v>2.1</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="5">
         <v>1.61</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="5">
         <v>5.85</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="5">
         <f t="shared" si="0"/>
         <v>0.49</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="17">
         <v>5.85</v>
       </c>
     </row>
@@ -2886,23 +4267,23 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="J5" s="17">
+      <c r="J5" s="14">
         <v>8.5990000000000002</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="5">
         <v>2.1</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="5">
         <v>1.5389999999999999</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="5">
         <v>5.3369999999999997</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="5">
         <f t="shared" si="0"/>
         <v>0.56100000000000017</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="17">
         <v>7.3369999999999997</v>
       </c>
     </row>
@@ -2911,23 +4292,23 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="J6" s="18">
+      <c r="J6" s="15">
         <v>8.5990000000000002</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="9">
         <v>2.1</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="18">
         <v>0</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="9">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="20">
         <v>78.73</v>
       </c>
     </row>
@@ -2945,10 +4326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2959,68 +4340,71 @@
     <col min="5" max="5" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="26">
         <v>10418517</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="27">
         <v>9.8499999999999994E-13</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="27">
         <v>1.1479999999999999E-10</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="28">
         <v>5.7399999999999997E-11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="26">
         <v>11771402</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="27">
         <v>7.4970000000000003E-13</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="27">
         <v>6.7399999999999995E-11</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="28">
         <v>5.3200000000000001E-11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="30">
         <v>14335157</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="31">
         <v>6.9799999999999995E-13</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="31">
         <v>6.0799999999999999E-11</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="32">
         <v>5.5699999999999999E-11</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3028,6 +4412,345 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26">
+        <v>0.52</v>
+      </c>
+      <c r="C2" s="35">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D2" s="35">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E2" s="36">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J2" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="K2" s="38">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M2" s="25">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5">
+        <f>SQRT(M2/$J$2/1.2)</f>
+        <v>0.7453559924999299</v>
+      </c>
+      <c r="O2" s="41">
+        <f>N2*$K$2</f>
+        <v>1.1180339887498949E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="C3" s="35">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D3" s="35">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E3" s="36">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="M3" s="25">
+        <v>5</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N8" si="0">SQRT(M3/$J$2/1.2)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="O3" s="41">
+        <f t="shared" ref="O3:O6" si="1">N3*$K$2</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="C4" s="35">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D4" s="35">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E4" s="36">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="M4" s="25">
+        <v>10</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="0"/>
+        <v>2.3570226039551585</v>
+      </c>
+      <c r="O4" s="41">
+        <f t="shared" si="1"/>
+        <v>3.5355339059327376E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1.05</v>
+      </c>
+      <c r="C5" s="35">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D5" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="36">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M5" s="25">
+        <v>15</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481291</v>
+      </c>
+      <c r="O5" s="41">
+        <f t="shared" si="1"/>
+        <v>4.3301270189221933E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>8</v>
+      </c>
+      <c r="B6" s="26">
+        <v>1.48</v>
+      </c>
+      <c r="C6" s="35">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D6" s="35">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E6" s="36">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="M6" s="25">
+        <v>20</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="O6" s="41">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
+        <v>10</v>
+      </c>
+      <c r="B7" s="26">
+        <v>1.64</v>
+      </c>
+      <c r="C7" s="35">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D7" s="35">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E7" s="36">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M7" s="25">
+        <v>25</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="0"/>
+        <v>3.7267799624996498</v>
+      </c>
+      <c r="O7" s="41">
+        <f>N7*$K$2</f>
+        <v>5.5901699437494748E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25">
+        <v>15</v>
+      </c>
+      <c r="B8" s="26">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C8" s="35">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D8" s="35">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E8" s="36">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="M8" s="29">
+        <v>30</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" si="0"/>
+        <v>4.0824829046386304</v>
+      </c>
+      <c r="O8" s="43">
+        <f>N8*$K$2</f>
+        <v>6.1237243569579457E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
+        <v>20</v>
+      </c>
+      <c r="B9" s="26">
+        <v>2.33</v>
+      </c>
+      <c r="C9" s="35">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D9" s="35">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E9" s="36">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
+        <v>25</v>
+      </c>
+      <c r="B10" s="26">
+        <v>2.6</v>
+      </c>
+      <c r="C10" s="35">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D10" s="35">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29">
+        <v>30</v>
+      </c>
+      <c r="B11" s="30">
+        <v>2.85</v>
+      </c>
+      <c r="C11" s="37">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D11" s="37">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E11" s="38">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="46">
+        <v>5.77</v>
+      </c>
+      <c r="N12" s="44"/>
+      <c r="O12" s="47">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M13" s="25">
+        <v>3.11</v>
+      </c>
+      <c r="N13" s="26"/>
+      <c r="O13" s="41">
+        <v>3.9100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M14" s="45"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="36"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="42"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="38"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
@@ -3107,10 +4830,10 @@
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3144,7 +4867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/PaperII.xlsx
+++ b/PaperII.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="419" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="419" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="pressure_drop_real" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>coarse</t>
   </si>
@@ -169,6 +169,41 @@
         <scheme val="minor"/>
       </rPr>
       <t>/s]</t>
+    </r>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>Por</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
     </r>
   </si>
 </sst>
@@ -369,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -447,6 +482,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,11 +679,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206576256"/>
-        <c:axId val="206594816"/>
+        <c:axId val="219629824"/>
+        <c:axId val="219652480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206576256"/>
+        <c:axId val="219629824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -672,19 +710,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206594816"/>
+        <c:crossAx val="219652480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206594816"/>
+        <c:axId val="219652480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -713,14 +750,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206576256"/>
+        <c:crossAx val="219629824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -842,11 +878,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207701888"/>
-        <c:axId val="207703424"/>
+        <c:axId val="225676672"/>
+        <c:axId val="225690752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207701888"/>
+        <c:axId val="225676672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,12 +892,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207703424"/>
+        <c:crossAx val="225690752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207703424"/>
+        <c:axId val="225690752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5"/>
@@ -873,7 +909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207701888"/>
+        <c:crossAx val="225676672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -983,11 +1019,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207728640"/>
-        <c:axId val="207730176"/>
+        <c:axId val="226047488"/>
+        <c:axId val="226049024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207728640"/>
+        <c:axId val="226047488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,12 +1033,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207730176"/>
+        <c:crossAx val="226049024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207730176"/>
+        <c:axId val="226049024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,7 +1049,594 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207728640"/>
+        <c:crossAx val="226047488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.29556627296587928"/>
+                  <c:y val="-9.733887430737824E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr>
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$W$4:$W$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$X$4:$X$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>101.01900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201.12700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="226081792"/>
+        <c:axId val="226083584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="226081792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="210"/>
+          <c:min val="90"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="226083584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="226083584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="226081792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$W$26:$W$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$Z$26:$Z$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.43E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$W$26:$W$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$Z$26:$Z$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="225735424"/>
+        <c:axId val="225736960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="225735424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="225736960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="225736960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="225735424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad3!$A$1:$C$1</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad3!$A$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="225782016"/>
+        <c:axId val="225796096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="225782016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5.000000000000001E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="225796096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="225796096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="225782016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad3!$A$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10% 20% 30%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad3!$A$1:$C$1</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad3!$A$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.7999999999999997E-13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3E-13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4000000000000002E-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="225815552"/>
+        <c:axId val="225817344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="225815552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5.000000000000001E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="225817344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="225817344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="225815552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1065,7 +1688,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:txPr>
                 <a:bodyPr/>
@@ -1135,11 +1757,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207099392"/>
-        <c:axId val="207101312"/>
+        <c:axId val="219499136"/>
+        <c:axId val="219505408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207099392"/>
+        <c:axId val="219499136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.2"/>
@@ -1170,19 +1792,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207101312"/>
+        <c:crossAx val="219505408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207101312"/>
+        <c:axId val="219505408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -1207,14 +1828,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207099392"/>
+        <c:crossAx val="219499136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1279,7 +1899,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:txPr>
                 <a:bodyPr/>
@@ -1349,11 +1968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207147008"/>
-        <c:axId val="207148928"/>
+        <c:axId val="219542656"/>
+        <c:axId val="219544576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207147008"/>
+        <c:axId val="219542656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,19 +2010,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207148928"/>
+        <c:crossAx val="219544576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207148928"/>
+        <c:axId val="219544576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,14 +2044,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207147008"/>
+        <c:crossAx val="219542656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1653,11 +2270,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207320576"/>
-        <c:axId val="207322496"/>
+        <c:axId val="219980928"/>
+        <c:axId val="219982848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207320576"/>
+        <c:axId val="219980928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -1688,19 +2305,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207322496"/>
+        <c:crossAx val="219982848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207322496"/>
+        <c:axId val="219982848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -1725,14 +2341,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207320576"/>
+        <c:crossAx val="219980928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1797,7 +2412,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:txPr>
                 <a:bodyPr/>
@@ -1867,11 +2481,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207348096"/>
-        <c:axId val="207350016"/>
+        <c:axId val="220003712"/>
+        <c:axId val="220071424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207348096"/>
+        <c:axId val="220003712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1912,21 +2526,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207350016"/>
+        <c:crossAx val="220071424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207350016"/>
+        <c:axId val="220071424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -1950,14 +2563,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207348096"/>
+        <c:crossAx val="220003712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2058,11 +2670,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207654272"/>
-        <c:axId val="207668352"/>
+        <c:axId val="220150784"/>
+        <c:axId val="220156672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207654272"/>
+        <c:axId val="220150784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000000"/>
@@ -2074,12 +2686,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207668352"/>
+        <c:crossAx val="220156672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207668352"/>
+        <c:axId val="220156672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2000000000000007E-12"/>
@@ -2092,7 +2704,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207654272"/>
+        <c:crossAx val="220150784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0000000000000007E-13"/>
@@ -2240,11 +2852,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207382016"/>
-        <c:axId val="207383552"/>
+        <c:axId val="225444992"/>
+        <c:axId val="225446528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207382016"/>
+        <c:axId val="225444992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000000"/>
@@ -2256,12 +2868,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207383552"/>
+        <c:crossAx val="225446528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207383552"/>
+        <c:axId val="225446528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2272,7 +2884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207382016"/>
+        <c:crossAx val="225444992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2378,8 +2990,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207454208"/>
-        <c:axId val="207455744"/>
+        <c:axId val="225489664"/>
+        <c:axId val="225491584"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2632,11 +3244,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207454208"/>
-        <c:axId val="207455744"/>
+        <c:axId val="225489664"/>
+        <c:axId val="225491584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207454208"/>
+        <c:axId val="225489664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2664,19 +3276,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207455744"/>
+        <c:crossAx val="225491584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207455744"/>
+        <c:axId val="225491584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,7 +3298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207454208"/>
+        <c:crossAx val="225489664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2947,11 +3558,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207485952"/>
-        <c:axId val="207504128"/>
+        <c:axId val="225534720"/>
+        <c:axId val="225536256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207485952"/>
+        <c:axId val="225534720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2961,12 +3572,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207504128"/>
+        <c:crossAx val="225536256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207504128"/>
+        <c:axId val="225536256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2977,7 +3588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207485952"/>
+        <c:crossAx val="225534720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3800,20 +4411,145 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4122,9 +4858,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -4317,6 +5053,11 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4415,7 +5156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
@@ -4752,15 +5493,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="Q13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>10</v>
       </c>
@@ -4783,7 +5524,7 @@
         <v>10.356999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>20</v>
       </c>
@@ -4806,7 +5547,7 @@
         <v>19.082999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -4829,7 +5570,23 @@
         <v>6.0061999999999998</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W4">
+        <v>100</v>
+      </c>
+      <c r="X4">
+        <v>101.01900000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W5">
+        <v>200</v>
+      </c>
+      <c r="X5">
+        <v>201.12700000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
@@ -4837,7 +5594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>10</v>
       </c>
@@ -4845,7 +5602,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>7.5</v>
       </c>
@@ -4853,7 +5610,7 @@
         <v>1.823</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>5.85</v>
       </c>
@@ -4861,6 +5618,291 @@
         <v>1.61</v>
       </c>
     </row>
+    <row r="24" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="3:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z25" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="V26" s="45">
+        <f>(X26-5+0.164)*-1</f>
+        <v>2.9238999999999997</v>
+      </c>
+      <c r="W26" s="26">
+        <v>1</v>
+      </c>
+      <c r="X26" s="26">
+        <f>W26*1.0011+0.911</f>
+        <v>1.9121000000000001</v>
+      </c>
+      <c r="Y26" s="26">
+        <f>X26+V26+0.164</f>
+        <v>5</v>
+      </c>
+      <c r="Z26" s="41">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="AA26" s="49">
+        <f>Z26/2</f>
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="V27" s="45">
+        <f t="shared" ref="V27:V34" si="2">(X27-5+0.164)*-1</f>
+        <v>-1.0805000000000009</v>
+      </c>
+      <c r="W27" s="26">
+        <v>5</v>
+      </c>
+      <c r="X27" s="26">
+        <f t="shared" ref="X27:X34" si="3">W27*1.0011+0.911</f>
+        <v>5.916500000000001</v>
+      </c>
+      <c r="Y27" s="26">
+        <f>X27+V27+0.164</f>
+        <v>5</v>
+      </c>
+      <c r="Z27" s="41">
+        <v>0.61</v>
+      </c>
+      <c r="AA27" s="49">
+        <f t="shared" ref="AA27:AA33" si="4">Z27/2</f>
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="V28" s="45">
+        <f t="shared" si="2"/>
+        <v>-6.0860000000000003</v>
+      </c>
+      <c r="W28" s="26">
+        <v>10</v>
+      </c>
+      <c r="X28" s="26">
+        <f t="shared" si="3"/>
+        <v>10.922000000000001</v>
+      </c>
+      <c r="Y28" s="26">
+        <f t="shared" ref="Y28:Y34" si="5">X28+V28+0.164</f>
+        <v>5</v>
+      </c>
+      <c r="Z28" s="41">
+        <v>0.42</v>
+      </c>
+      <c r="AA28" s="49">
+        <f t="shared" si="4"/>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="V29" s="45">
+        <f t="shared" si="2"/>
+        <v>-16.097000000000005</v>
+      </c>
+      <c r="W29" s="26">
+        <v>20</v>
+      </c>
+      <c r="X29" s="26">
+        <f t="shared" si="3"/>
+        <v>20.933000000000003</v>
+      </c>
+      <c r="Y29" s="26">
+        <f t="shared" si="5"/>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="Z29" s="41">
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="AA29" s="49">
+        <f t="shared" si="4"/>
+        <v>0.12239999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="V30" s="45">
+        <f t="shared" si="2"/>
+        <v>-36.119000000000007</v>
+      </c>
+      <c r="W30" s="26">
+        <v>40</v>
+      </c>
+      <c r="X30" s="26">
+        <f t="shared" si="3"/>
+        <v>40.955000000000005</v>
+      </c>
+      <c r="Y30" s="26">
+        <f t="shared" si="5"/>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="Z30" s="41">
+        <v>0.127</v>
+      </c>
+      <c r="AA30" s="49">
+        <f t="shared" si="4"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="V31" s="45">
+        <f t="shared" si="2"/>
+        <v>-96.185000000000016</v>
+      </c>
+      <c r="W31" s="26">
+        <v>100</v>
+      </c>
+      <c r="X31" s="26">
+        <f t="shared" si="3"/>
+        <v>101.02100000000002</v>
+      </c>
+      <c r="Y31" s="26">
+        <f t="shared" si="5"/>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="Z31" s="41">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="AA31" s="49">
+        <f t="shared" si="4"/>
+        <v>2.5149999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="V32" s="45">
+        <f t="shared" si="2"/>
+        <v>-196.29500000000002</v>
+      </c>
+      <c r="W32" s="26">
+        <v>200</v>
+      </c>
+      <c r="X32" s="26">
+        <f t="shared" si="3"/>
+        <v>201.13100000000003</v>
+      </c>
+      <c r="Y32" s="26">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000124</v>
+      </c>
+      <c r="Z32" s="41">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AA32" s="49">
+        <f t="shared" si="4"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="22:27" x14ac:dyDescent="0.3">
+      <c r="V33" s="45">
+        <f t="shared" si="2"/>
+        <v>-396.51500000000004</v>
+      </c>
+      <c r="W33" s="26">
+        <v>400</v>
+      </c>
+      <c r="X33" s="26">
+        <f t="shared" si="3"/>
+        <v>401.35100000000006</v>
+      </c>
+      <c r="Y33" s="26">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000124</v>
+      </c>
+      <c r="Z33" s="41">
+        <v>1.43E-2</v>
+      </c>
+      <c r="AA33" s="49">
+        <f t="shared" si="4"/>
+        <v>7.1500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="22:27" x14ac:dyDescent="0.3">
+      <c r="V34" s="45">
+        <f t="shared" si="2"/>
+        <v>-21.102500000000006</v>
+      </c>
+      <c r="W34" s="50">
+        <v>25</v>
+      </c>
+      <c r="X34" s="50">
+        <f t="shared" si="3"/>
+        <v>25.938500000000005</v>
+      </c>
+      <c r="Y34" s="50">
+        <f t="shared" si="5"/>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="Z34" s="36"/>
+    </row>
+    <row r="35" spans="22:27" x14ac:dyDescent="0.3">
+      <c r="V35" s="45"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="36"/>
+    </row>
+    <row r="36" spans="22:27" x14ac:dyDescent="0.3">
+      <c r="V36" s="45"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="36"/>
+    </row>
+    <row r="37" spans="22:27" x14ac:dyDescent="0.3">
+      <c r="V37" s="45"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="36"/>
+    </row>
+    <row r="38" spans="22:27" x14ac:dyDescent="0.3">
+      <c r="V38" s="45"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="36"/>
+    </row>
+    <row r="39" spans="22:27" x14ac:dyDescent="0.3">
+      <c r="V39" s="45"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="36"/>
+    </row>
+    <row r="40" spans="22:27" x14ac:dyDescent="0.3">
+      <c r="V40" s="45"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="36"/>
+    </row>
+    <row r="41" spans="22:27" x14ac:dyDescent="0.3">
+      <c r="V41" s="45"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="36"/>
+    </row>
+    <row r="42" spans="22:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V42" s="42"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="38"/>
+    </row>
+    <row r="43" spans="22:27" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4869,12 +5911,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="B1" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="C1" s="49">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.23</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+      <c r="C2">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="51">
+        <v>4.7999999999999997E-13</v>
+      </c>
+      <c r="B3" s="51">
+        <v>1.3E-13</v>
+      </c>
+      <c r="C3" s="51">
+        <v>4.4000000000000002E-14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PaperII.xlsx
+++ b/PaperII.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="419" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="419" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="pressure_drop_real" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,11 @@
     <sheet name="gap_flowrate" sheetId="5" r:id="rId3"/>
     <sheet name="Blad1" sheetId="1" r:id="rId4"/>
     <sheet name="Blad3" sheetId="3" r:id="rId5"/>
+    <sheet name="results" sheetId="6" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="New_Text_Document" localSheetId="2">gap_flowrate!$A$2:$E$11</definedName>
   </definedNames>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>coarse</t>
   </si>
@@ -206,6 +210,33 @@
       <t>P</t>
     </r>
   </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>5 Pa</t>
+  </si>
+  <si>
+    <t>10 Pa</t>
+  </si>
+  <si>
+    <t>15 Pa</t>
+  </si>
+  <si>
+    <t>Case A</t>
+  </si>
+  <si>
+    <t>Case B</t>
+  </si>
+  <si>
+    <t>Case C</t>
+  </si>
+  <si>
+    <t>Case D</t>
+  </si>
 </sst>
 </file>
 
@@ -255,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -400,11 +431,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -485,6 +558,36 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,11 +782,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219629824"/>
-        <c:axId val="219652480"/>
+        <c:axId val="217159936"/>
+        <c:axId val="217182592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219629824"/>
+        <c:axId val="217159936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,18 +813,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219652480"/>
+        <c:crossAx val="217182592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219652480"/>
+        <c:axId val="217182592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -750,13 +854,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219629824"/>
+        <c:crossAx val="217159936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -878,11 +983,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225676672"/>
-        <c:axId val="225690752"/>
+        <c:axId val="218090880"/>
+        <c:axId val="218309760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225676672"/>
+        <c:axId val="218090880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,12 +997,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225690752"/>
+        <c:crossAx val="218309760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225690752"/>
+        <c:axId val="218309760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5"/>
@@ -909,7 +1014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225676672"/>
+        <c:crossAx val="218090880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1019,11 +1124,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226047488"/>
-        <c:axId val="226049024"/>
+        <c:axId val="218334720"/>
+        <c:axId val="218336256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226047488"/>
+        <c:axId val="218334720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,12 +1138,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226049024"/>
+        <c:crossAx val="218336256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226049024"/>
+        <c:axId val="218336256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226047488"/>
+        <c:crossAx val="218334720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1157,11 +1262,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226081792"/>
-        <c:axId val="226083584"/>
+        <c:axId val="218364928"/>
+        <c:axId val="218366720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226081792"/>
+        <c:axId val="218364928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -1173,12 +1278,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226083584"/>
+        <c:crossAx val="218366720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226083584"/>
+        <c:axId val="218366720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,7 +1294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226081792"/>
+        <c:crossAx val="218364928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1352,11 +1457,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225735424"/>
-        <c:axId val="225736960"/>
+        <c:axId val="218403584"/>
+        <c:axId val="218405120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225735424"/>
+        <c:axId val="218403584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1369,14 +1474,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225736960"/>
+        <c:crossAx val="218405120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225736960"/>
+        <c:axId val="218405120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.1"/>
@@ -1389,7 +1494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225735424"/>
+        <c:crossAx val="218403584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="1.0000000000000002E-2"/>
@@ -1476,11 +1581,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225782016"/>
-        <c:axId val="225796096"/>
+        <c:axId val="218585344"/>
+        <c:axId val="218603520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225782016"/>
+        <c:axId val="218585344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.000000000000001E-2"/>
@@ -1491,12 +1596,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225796096"/>
+        <c:crossAx val="218603520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225796096"/>
+        <c:axId val="218603520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1507,7 +1612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225782016"/>
+        <c:crossAx val="218585344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -1605,11 +1710,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225815552"/>
-        <c:axId val="225817344"/>
+        <c:axId val="218622976"/>
+        <c:axId val="218624768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225815552"/>
+        <c:axId val="218622976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.000000000000001E-2"/>
@@ -1620,12 +1725,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225817344"/>
+        <c:crossAx val="218624768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225817344"/>
+        <c:axId val="218624768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,11 +1741,837 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225815552"/>
+        <c:crossAx val="218622976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13659303421801741"/>
+          <c:y val="2.6859338770994428E-2"/>
+          <c:w val="0.83667085028502575"/>
+          <c:h val="0.78365609704192385"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>summer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct5">
+                <a:fgClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5 Pa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 Pa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15 Pa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>398.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>359.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>326.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>winter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5 Pa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 Pa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15 Pa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>325.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="191828352"/>
+        <c:axId val="192034304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="191828352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0">
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192034304"/>
+        <c:crossesAt val="1.0000000000000002E-2"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="192034304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1">
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1">
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of CFU</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200" b="1" baseline="30000">
+                  <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100">
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="191828352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80132023206259262"/>
+          <c:y val="6.9618032714993644E-2"/>
+          <c:w val="0.12575512302905403"/>
+          <c:h val="0.13572042961643563"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100">
+              <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13659303421801741"/>
+          <c:y val="2.6859338770994428E-2"/>
+          <c:w val="0.83667085028502575"/>
+          <c:h val="0.78365609704192385"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>summer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Case A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Case B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Case C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>398.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>winter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Case A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Case B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Case C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="191830272"/>
+        <c:axId val="192046592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="191830272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0">
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192046592"/>
+        <c:crossesAt val="1.0000000000000002E-2"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="192046592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1">
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1">
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of CFU</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200" b="1" baseline="30000">
+                  <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100">
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="191830272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80861189992539917"/>
+          <c:y val="6.9618032714993644E-2"/>
+          <c:w val="0.12576308930934318"/>
+          <c:h val="0.13561521530283047"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100">
+              <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:yVal>
+            <c:numRef>
+              <c:f>results!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>398.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:yVal>
+            <c:numRef>
+              <c:f>results!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="127331712"/>
+        <c:axId val="114989696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="127331712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114989696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="114989696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127331712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1688,6 +2619,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:txPr>
                 <a:bodyPr/>
@@ -1757,11 +2689,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219499136"/>
-        <c:axId val="219505408"/>
+        <c:axId val="217486464"/>
+        <c:axId val="217488384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219499136"/>
+        <c:axId val="217486464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.2"/>
@@ -1792,18 +2724,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219505408"/>
+        <c:crossAx val="217488384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219505408"/>
+        <c:axId val="217488384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -1828,13 +2761,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219499136"/>
+        <c:crossAx val="217486464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1899,6 +2833,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:txPr>
                 <a:bodyPr/>
@@ -1968,11 +2903,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219542656"/>
-        <c:axId val="219544576"/>
+        <c:axId val="218185088"/>
+        <c:axId val="218191360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219542656"/>
+        <c:axId val="218185088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,18 +2945,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219544576"/>
+        <c:crossAx val="218191360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219544576"/>
+        <c:axId val="218191360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2044,13 +2980,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219542656"/>
+        <c:crossAx val="218185088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2270,11 +3207,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219980928"/>
-        <c:axId val="219982848"/>
+        <c:axId val="218226048"/>
+        <c:axId val="217843200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219980928"/>
+        <c:axId val="218226048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -2305,18 +3242,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219982848"/>
+        <c:crossAx val="217843200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219982848"/>
+        <c:axId val="217843200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -2341,13 +3279,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219980928"/>
+        <c:crossAx val="218226048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -2481,11 +3420,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220003712"/>
-        <c:axId val="220071424"/>
+        <c:axId val="217864064"/>
+        <c:axId val="217874432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220003712"/>
+        <c:axId val="217864064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2532,14 +3471,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220071424"/>
+        <c:crossAx val="217874432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220071424"/>
+        <c:axId val="217874432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -2569,7 +3508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220003712"/>
+        <c:crossAx val="217864064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2670,11 +3609,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220150784"/>
-        <c:axId val="220156672"/>
+        <c:axId val="217945600"/>
+        <c:axId val="217947136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220150784"/>
+        <c:axId val="217945600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000000"/>
@@ -2686,12 +3625,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220156672"/>
+        <c:crossAx val="217947136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220156672"/>
+        <c:axId val="217947136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2000000000000007E-12"/>
@@ -2704,7 +3643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220150784"/>
+        <c:crossAx val="217945600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0000000000000007E-13"/>
@@ -2852,11 +3791,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225444992"/>
-        <c:axId val="225446528"/>
+        <c:axId val="217963520"/>
+        <c:axId val="217989888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225444992"/>
+        <c:axId val="217963520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000000"/>
@@ -2868,12 +3807,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225446528"/>
+        <c:crossAx val="217989888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225446528"/>
+        <c:axId val="217989888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2884,7 +3823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225444992"/>
+        <c:crossAx val="217963520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2990,8 +3929,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225489664"/>
-        <c:axId val="225491584"/>
+        <c:axId val="218530176"/>
+        <c:axId val="218532096"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3244,11 +4183,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225489664"/>
-        <c:axId val="225491584"/>
+        <c:axId val="218530176"/>
+        <c:axId val="218532096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225489664"/>
+        <c:axId val="218530176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3276,18 +4215,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225491584"/>
+        <c:crossAx val="218532096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225491584"/>
+        <c:axId val="218532096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3298,7 +4238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225489664"/>
+        <c:crossAx val="218530176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3558,11 +4498,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225534720"/>
-        <c:axId val="225536256"/>
+        <c:axId val="218046848"/>
+        <c:axId val="218048384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225534720"/>
+        <c:axId val="218046848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3572,12 +4512,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225536256"/>
+        <c:crossAx val="218048384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225536256"/>
+        <c:axId val="218048384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3588,7 +4528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225534720"/>
+        <c:crossAx val="218046848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4567,6 +5507,190 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>562709</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400842</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101532</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>500743</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179517</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251791</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>556591</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>46383</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Blad1"/>
+      <sheetName val="Blad2"/>
+      <sheetName val="Blad2_2"/>
+      <sheetName val="Blad2_3"/>
+      <sheetName val="Blad2_3_2"/>
+      <sheetName val="Blad2_4"/>
+      <sheetName val="Blad2_4_2"/>
+      <sheetName val="Blad1_2_"/>
+      <sheetName val="Blad2_2_"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="D1" t="str">
+            <v>Instrument table 1</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Instrument table 2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>Operating table</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Mixing</v>
+          </cell>
+          <cell r="C8">
+            <v>30.9</v>
+          </cell>
+          <cell r="F8">
+            <v>26.3</v>
+          </cell>
+          <cell r="G8">
+            <v>36.299999999999997</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>TAF</v>
+          </cell>
+          <cell r="C9">
+            <v>9.7000000000000003E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>14.2</v>
+          </cell>
+          <cell r="G9">
+            <v>24.9</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>LAF</v>
+          </cell>
+          <cell r="C10">
+            <v>4.8000000000000001E-2</v>
+          </cell>
+          <cell r="F10">
+            <v>2.76</v>
+          </cell>
+          <cell r="G10">
+            <v>35.200000000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -4856,6 +5980,568 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
@@ -5495,8 +7181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView topLeftCell="Q13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5913,7 +7599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -5957,4 +7643,158 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="59">
+        <v>398.5</v>
+      </c>
+      <c r="D2" s="59">
+        <v>196.3</v>
+      </c>
+      <c r="E2" s="59">
+        <v>53.8</v>
+      </c>
+      <c r="F2" s="60">
+        <v>17.3</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="J2" s="49">
+        <f>1-(F2/C2)</f>
+        <v>0.95658720200752823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="56"/>
+      <c r="B3" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="61">
+        <v>359.3</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="26"/>
+      <c r="J3" s="49"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="57"/>
+      <c r="B4" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="63">
+        <v>326.8</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="26"/>
+      <c r="I4" s="49">
+        <f>1-(C4/C2)</f>
+        <v>0.17992471769134255</v>
+      </c>
+      <c r="J4" s="49"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="61">
+        <v>391</v>
+      </c>
+      <c r="D5" s="61">
+        <v>220.7</v>
+      </c>
+      <c r="E5" s="61">
+        <v>89.3</v>
+      </c>
+      <c r="F5" s="62">
+        <v>23.8</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="J5" s="49">
+        <f>1-(F5/C5)</f>
+        <v>0.93913043478260871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="56"/>
+      <c r="B6" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="65">
+        <v>357</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="58"/>
+      <c r="B7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="66">
+        <v>325.7</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="26"/>
+      <c r="I7" s="49">
+        <f>1-(C7/C5)</f>
+        <v>0.16700767263427108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>